--- a/Data/qPCR_primer_effis_converted.xlsx
+++ b/Data/qPCR_primer_effis_converted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-105793286447324059497/My Drive/RStudio/Dominance Project/DomRegen_Data_Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinvarholick/Documents/GitHub/AcomysDominance_2022_Data_Results/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E00B4-03B9-6041-B6B9-4A9289F9ECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B3A385-AD13-3548-B198-4B4B3D841387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="18880" windowHeight="21100" xr2:uid="{94BBEDAE-8150-460A-906B-63797523FB32}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{94BBEDAE-8150-460A-906B-63797523FB32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>effi</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Nrb01</t>
   </si>
   <si>
-    <t>Actin B</t>
-  </si>
-  <si>
-    <t>GAPDH</t>
-  </si>
-  <si>
     <t>StAR</t>
   </si>
   <si>
@@ -64,6 +58,9 @@
   </si>
   <si>
     <t>Cyp11b1</t>
+  </si>
+  <si>
+    <t>ActinB</t>
   </si>
 </sst>
 </file>
@@ -416,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835FDA5-937F-4DF8-94F0-F73D11690C34}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="263" zoomScaleNormal="263" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -437,7 +434,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>87.679021307650615</v>
@@ -449,13 +446,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>93.649079565006431</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">(B3/100)+1</f>
+        <f t="shared" ref="C3:C7" si="0">(B3/100)+1</f>
         <v>1.9364907956500643</v>
       </c>
     </row>
@@ -464,59 +461,47 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>104.86580283185458</v>
+        <v>87.732676547180759</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.0486580283185458</v>
+        <v>1.8773267654718075</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>87.732676547180759</v>
+        <v>95.435840160202673</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1.8773267654718075</v>
+        <v>1.9543584016020268</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>95.435840160202673</v>
+        <v>89.819839362855134</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.9543584016020268</v>
+        <v>1.8981983936285514</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>89.819839362855134</v>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>94.17</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.8981983936285514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>107.66</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2.0766</v>
+        <v>1.9417</v>
       </c>
     </row>
   </sheetData>
